--- a/Documente/Licenta.xlsx
+++ b/Documente/Licenta.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>Latency</t>
   </si>
@@ -32,9 +31,6 @@
   </si>
   <si>
     <t>Accuracy</t>
-  </si>
-  <si>
-    <t>DimFer</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,6 +59,12 @@
   <si>
     <t>Dimeansunea Fluxului</t>
   </si>
+  <si>
+    <t>Avreage</t>
+  </si>
+  <si>
+    <t>Hop</t>
+  </si>
 </sst>
 </file>
 
@@ -77,15 +79,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,11 +107,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -106,6 +135,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -140,6 +182,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -180,7 +223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -253,6 +296,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -287,7 +331,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -311,7 +355,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>Sheet1!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -404,6 +448,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -496,6 +541,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -626,6 +672,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -666,7 +713,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$47</c:f>
+              <c:f>Sheet1!$E$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -742,6 +789,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -762,7 +810,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$48:$B$52</c:f>
+              <c:f>Sheet1!$C$47:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -786,7 +834,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$48:$D$52</c:f>
+              <c:f>Sheet1!$E$47:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -874,6 +922,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1078,6 +1127,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1118,7 +1168,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$47</c:f>
+              <c:f>Sheet1!$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1189,7 +1239,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$48:$B$52</c:f>
+              <c:f>Sheet1!$C$47:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1213,7 +1263,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$48:$F$52</c:f>
+              <c:f>Sheet1!$G$47:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1300,6 +1350,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1527,7 +1578,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$69</c:f>
+              <c:f>Sheet1!$D$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1635,7 +1686,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$70:$B$74</c:f>
+              <c:f>Sheet1!$C$69:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1659,7 +1710,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$70:$C$74</c:f>
+              <c:f>Sheet1!$D$69:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1985,7 +2036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$69</c:f>
+              <c:f>Sheet1!$E$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2082,7 +2133,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$70:$B$74</c:f>
+              <c:f>Sheet1!$C$69:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2106,7 +2157,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$70:$D$74</c:f>
+              <c:f>Sheet1!$E$69:$E$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2445,7 +2496,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$69</c:f>
+              <c:f>Sheet1!$G$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2516,7 +2567,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$70:$B$74</c:f>
+              <c:f>Sheet1!$C$69:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2540,7 +2591,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$70:$F$74</c:f>
+              <c:f>Sheet1!$G$69:$G$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2832,516 +2883,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$90</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Latency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1440256861096232E-2"/>
-                  <c:y val="2.781933508311461E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A5F4-4D8E-AFAC-ECFA36105BE1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.9983946181484595E-2"/>
-                  <c:y val="-7.2180664916885393E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-A5F4-4D8E-AFAC-ECFA36105BE1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ro-RO"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$91:$B$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$91:$D$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>24.376000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43.024999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93.692999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87.649000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>114.836</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5F4-4D8E-AFAC-ECFA36105BE1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="215145855"/>
-        <c:axId val="215144607"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="215145855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ro-RO" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Dimeansunea Fluxului</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ro-RO" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="ro-RO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="215144607"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="215144607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="215145855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3369,7 +2910,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$90</c:f>
+              <c:f>Sheet1!$G$89</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3440,7 +2981,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$91:$B$95</c:f>
+              <c:f>Sheet1!$C$90:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3464,7 +3005,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$91:$F$95</c:f>
+              <c:f>Sheet1!$G$90:$G$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3730,7 +3271,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3745,6 +3286,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3785,7 +3327,915 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$E$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1440256861096232E-2"/>
+                  <c:y val="2.781933508311461E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-75BD-47BA-BBB6-ADD7A5568D8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9983946181484595E-2"/>
+                  <c:y val="-7.2180664916885393E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-75BD-47BA-BBB6-ADD7A5568D8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$90:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$90:$E$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.376000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.692999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75BD-47BA-BBB6-ADD7A5568D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="215145855"/>
+        <c:axId val="215144607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="215145855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ro-RO" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Dimeansunea Fluxului</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ro-RO" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ro-RO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="215144607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="215144607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="215145855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$112:$D$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$112:$E$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5236900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6563099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8473099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4866299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9849399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1AC-41D4-8B0A-480EF27A2784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1358134799"/>
+        <c:axId val="1358135215"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1358134799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358135215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1358135215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358134799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3861,6 +4311,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3881,7 +4332,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3905,7 +4356,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:f>Sheet1!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3998,6 +4449,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4202,6 +4654,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4243,7 +4696,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4264,7 +4717,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4288,7 +4741,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4363,6 +4816,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4552,6 +5006,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4592,7 +5047,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>Sheet1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4663,7 +5118,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4687,7 +5142,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:f>Sheet1!$G$3:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4774,6 +5229,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4960,6 +5416,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5000,7 +5457,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$26</c:f>
+              <c:f>Sheet1!$D$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5073,6 +5530,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5107,10 +5565,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$32</c:f>
+              <c:f>Sheet1!$C$27:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5126,18 +5584,15 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$27:$C$32</c:f>
+              <c:f>Sheet1!$D$27:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.83212</c:v>
                 </c:pt>
@@ -5152,9 +5607,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.6963499999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.58317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5234,6 +5686,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5426,6 +5879,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5466,7 +5920,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$26</c:f>
+              <c:f>Sheet1!$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5542,6 +5996,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5562,10 +6017,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$32</c:f>
+              <c:f>Sheet1!$C$27:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5581,18 +6036,15 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$27:$D$32</c:f>
+              <c:f>Sheet1!$E$27:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0629999999999997</c:v>
                 </c:pt>
@@ -5607,9 +6059,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.0289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9710000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5684,6 +6133,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5888,6 +6338,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5929,7 +6380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$26</c:f>
+              <c:f>Sheet1!$F$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5950,10 +6401,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$32</c:f>
+              <c:f>Sheet1!$C$27:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5969,18 +6420,15 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$27:$E$32</c:f>
+              <c:f>Sheet1!$F$27:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>440699.81090909097</c:v>
                 </c:pt>
@@ -5995,9 +6443,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>443678.71999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>438376.26181818201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6054,6 +6499,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6243,6 +6689,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6283,7 +6730,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$26</c:f>
+              <c:f>Sheet1!$G$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6354,10 +6801,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$32</c:f>
+              <c:f>Sheet1!$C$27:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6373,18 +6820,15 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$27:$F$32</c:f>
+              <c:f>Sheet1!$G$27:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>24.723636363636398</c:v>
                 </c:pt>
@@ -6399,9 +6843,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23.136363636363601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.025454545454501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6475,6 +6916,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6709,7 +7151,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$47</c:f>
+              <c:f>Sheet1!$D$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6782,6 +7224,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6816,7 +7259,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$48:$B$52</c:f>
+              <c:f>Sheet1!$C$47:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6840,7 +7283,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$48:$C$52</c:f>
+              <c:f>Sheet1!$D$47:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6928,6 +7371,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7425,6 +7869,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10934,582 +11418,6 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="15875">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12011,6 +11919,1098 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
   <cs:axisTitle>
@@ -16209,13 +17209,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
@@ -16239,13 +17239,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
@@ -16269,13 +17269,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -16299,13 +17299,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -16329,16 +17329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16359,16 +17359,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16389,15 +17389,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16419,15 +17419,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16449,16 +17449,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16479,15 +17479,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16509,15 +17509,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16539,15 +17539,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16569,15 +17569,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16599,15 +17599,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16629,20 +17629,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="18" name="Chart 17"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16659,20 +17659,52 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16681,7 +17713,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16953,633 +17985,825 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F95"/>
+  <dimension ref="B1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="R114" sqref="R114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3"/>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.8360300000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.2519999999999998</v>
+      </c>
+      <c r="F3" s="4">
+        <v>483228.82324455201</v>
+      </c>
+      <c r="G3" s="4">
+        <v>33.520581113801498</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.9264099999999997</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.343</v>
+      </c>
+      <c r="F4" s="4">
+        <v>493806.65582655801</v>
+      </c>
+      <c r="G4" s="4">
+        <v>35.422764227642297</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.6313599999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6.2130000000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>506464.65794392501</v>
+      </c>
+      <c r="G5" s="4">
+        <v>36.5971962616822</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D6" s="4">
+        <v>2.8018999999999998</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.2709999999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>509604.22641509399</v>
+      </c>
+      <c r="G6" s="4">
+        <v>42.925979680696699</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.5887799999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="F7" s="4">
+        <v>525038.33971014502</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43.546086956521698</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6">
+        <f>AVERAGE(D3:D7)</f>
+        <v>4.1568959999999997</v>
+      </c>
+      <c r="E8" s="4">
+        <f>AVERAGE(E3:E7)</f>
+        <v>5.7737999999999996</v>
+      </c>
+      <c r="F8" s="4">
+        <f>AVERAGE(F3:F7)</f>
+        <v>503628.54062805476</v>
+      </c>
+      <c r="G8" s="4">
+        <f>AVERAGE(G3:G7)</f>
+        <v>38.402521648068884</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G26" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>6.8360300000000001</v>
-      </c>
-      <c r="D3">
-        <v>4.2519999999999998</v>
-      </c>
-      <c r="E3">
-        <v>483228.82324455201</v>
-      </c>
-      <c r="F3">
-        <v>33.520581113801498</v>
+      <c r="D27" s="4">
+        <v>1.83212</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="F27" s="4">
+        <v>440699.81090909097</v>
+      </c>
+      <c r="G27" s="4">
+        <v>24.723636363636398</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>4.9264099999999997</v>
-      </c>
-      <c r="D4">
-        <v>5.343</v>
-      </c>
-      <c r="E4">
-        <v>493806.65582655801</v>
-      </c>
-      <c r="F4" s="1">
-        <v>35.422764227642297</v>
+      <c r="D28" s="4">
+        <v>4.4660900000000003</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4.093</v>
+      </c>
+      <c r="F28" s="4">
+        <v>405695.243636364</v>
+      </c>
+      <c r="G28" s="4">
+        <v>26.8890909090909</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="4">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>3.6313599999999999</v>
-      </c>
-      <c r="D5">
-        <v>6.2130000000000001</v>
-      </c>
-      <c r="E5">
-        <v>506464.65794392501</v>
-      </c>
-      <c r="F5" s="1">
-        <v>36.5971962616822</v>
+      <c r="D29" s="4">
+        <v>6.9870400000000004</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="F29" s="4">
+        <v>450470.63272727298</v>
+      </c>
+      <c r="G29" s="4">
+        <v>20.494545454545499</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>2.8018999999999998</v>
-      </c>
-      <c r="D6">
-        <v>6.2709999999999999</v>
-      </c>
-      <c r="E6">
-        <v>509604.22641509399</v>
-      </c>
-      <c r="F6">
-        <v>42.925979680696699</v>
+      <c r="D30" s="4">
+        <v>2.7065100000000002</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="F30" s="4">
+        <v>457700.24727272702</v>
+      </c>
+      <c r="G30" s="4">
+        <v>27.383434343400001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="4">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2.5887799999999999</v>
-      </c>
-      <c r="D7">
-        <v>6.79</v>
-      </c>
-      <c r="E7">
-        <v>525038.33971014502</v>
-      </c>
-      <c r="F7">
-        <v>43.546086956521698</v>
+      <c r="D31" s="4">
+        <v>5.6963499999999998</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="F31" s="4">
+        <v>443678.71999999997</v>
+      </c>
+      <c r="G31" s="4">
+        <v>23.136363636363601</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="8">
+        <f>AVERAGE(D27:D31)</f>
+        <v>4.3376220000000005</v>
+      </c>
+      <c r="E32" s="6">
+        <f>AVERAGE(E27:E31)</f>
+        <v>4.0662000000000003</v>
+      </c>
+      <c r="F32" s="6">
+        <f>AVERAGE(F27:F31)</f>
+        <v>439648.93090909102</v>
+      </c>
+      <c r="G32" s="6">
+        <f>AVERAGE(G27:G31)</f>
+        <v>24.525414141407278</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>3.7227000000000001</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="F47" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G47" s="4">
+        <v>15.907407407407399</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="4">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4">
+        <v>3.3763000000000001</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="F48" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G48" s="4">
+        <v>16.3836477987421</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="4">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D49" s="4">
+        <v>3.1559300000000001</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3.08</v>
+      </c>
+      <c r="F49" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G49" s="4">
+        <v>16.425120772946901</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="4">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2.4154399999999998</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3.133</v>
+      </c>
+      <c r="F50" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G50" s="4">
+        <v>17.407692307692301</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="4">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2.3106300000000002</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="F51" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G51" s="4">
+        <v>18.2950819672131</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="4">
+        <f>AVERAGE(D47:D51)</f>
+        <v>2.9962</v>
+      </c>
+      <c r="E52" s="6">
+        <f>AVERAGE(E47:E51)</f>
+        <v>3.0848000000000004</v>
+      </c>
+      <c r="F52" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G52" s="4">
+        <f>AVERAGE(G47:G51)</f>
+        <v>16.883790050800361</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G68" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4">
         <v>1</v>
       </c>
-      <c r="C27">
-        <v>1.83212</v>
-      </c>
-      <c r="D27">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="E27">
-        <v>440699.81090909097</v>
-      </c>
-      <c r="F27">
-        <v>24.723636363636398</v>
+      <c r="D69" s="4">
+        <v>3.44686</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2.7469999999999999</v>
+      </c>
+      <c r="F69" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G69" s="4">
+        <v>11.62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="4">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>4.4660900000000003</v>
-      </c>
-      <c r="D28">
-        <v>4.093</v>
-      </c>
-      <c r="E28">
-        <v>405695.243636364</v>
-      </c>
-      <c r="F28" s="1">
-        <v>26.8890909090909</v>
+      <c r="D70" s="4">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="E70" s="4">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="F70" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G70" s="4">
+        <v>16.305454545454499</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="4">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>6.9870400000000004</v>
-      </c>
-      <c r="D29">
-        <v>3.2050000000000001</v>
-      </c>
-      <c r="E29">
-        <v>450470.63272727298</v>
-      </c>
-      <c r="F29">
-        <v>20.494545454545499</v>
+      <c r="D71" s="4">
+        <v>3.1164399999999999</v>
+      </c>
+      <c r="E71" s="4">
+        <v>10.08</v>
+      </c>
+      <c r="F71" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G71" s="4">
+        <v>21.9018181818182</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="4">
         <v>4</v>
       </c>
-      <c r="C30">
-        <v>2.7065100000000002</v>
-      </c>
-      <c r="D30">
-        <v>4.9409999999999998</v>
-      </c>
-      <c r="E30">
-        <v>457700.24727272702</v>
-      </c>
-      <c r="F30">
-        <v>27.383434343400001</v>
+      <c r="D72" s="4">
+        <v>1.24885</v>
+      </c>
+      <c r="E72" s="4">
+        <v>5.66</v>
+      </c>
+      <c r="F72" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G72" s="4">
+        <v>12.4254545454545</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="4">
         <v>5</v>
       </c>
-      <c r="C31">
-        <v>5.6963499999999998</v>
-      </c>
-      <c r="D31">
-        <v>4.0289999999999999</v>
-      </c>
-      <c r="E31">
-        <v>443678.71999999997</v>
-      </c>
-      <c r="F31">
-        <v>23.136363636363601</v>
+      <c r="D73" s="4">
+        <v>2.2077800000000001</v>
+      </c>
+      <c r="E73" s="4">
+        <v>6.1050000000000004</v>
+      </c>
+      <c r="F73" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G73" s="4">
+        <v>13.927272727272699</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>1.58317</v>
-      </c>
-      <c r="D32">
-        <v>4.9710000000000001</v>
-      </c>
-      <c r="E32">
-        <v>438376.26181818201</v>
-      </c>
-      <c r="F32">
-        <v>25.025454545454501</v>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="6">
+        <f>AVERAGE(D69:D73)</f>
+        <v>2.2735859999999999</v>
+      </c>
+      <c r="E74" s="4">
+        <f>AVERAGE(E69:E73)</f>
+        <v>5.5389999999999997</v>
+      </c>
+      <c r="F74" s="4">
+        <v>65536</v>
+      </c>
+      <c r="G74" s="6">
+        <f>AVERAGE(G69:G73)</f>
+        <v>15.235999999999979</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90">
         <v>10</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>24.376000000000001</v>
+      </c>
+      <c r="F90">
+        <v>65536</v>
+      </c>
+      <c r="G90">
+        <v>94.1666666666667</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>43.024999999999999</v>
+      </c>
+      <c r="F91">
+        <v>65536</v>
+      </c>
+      <c r="G91" s="1">
+        <v>199.222222222222</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92">
+        <v>300</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>93.692999999999998</v>
+      </c>
+      <c r="F92">
+        <v>65536</v>
+      </c>
+      <c r="G92" s="1">
+        <v>27.443995049504899</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93">
+        <v>500</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>87.649000000000001</v>
+      </c>
+      <c r="F93">
+        <v>65536</v>
+      </c>
+      <c r="G93">
+        <v>39.211622680412297</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94">
+        <v>700</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>114.836</v>
+      </c>
+      <c r="F94">
+        <v>65536</v>
+      </c>
+      <c r="G94">
+        <v>54.8703283185841</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
+      <c r="E112" s="4">
+        <v>2.5236900000000002</v>
+      </c>
+      <c r="F112" s="4">
+        <v>5.9788242497972304</v>
+      </c>
+      <c r="G112" s="4">
+        <v>503439.26034063299</v>
+      </c>
+      <c r="H112" s="4">
+        <v>40.463098134630997</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C113" s="5"/>
+      <c r="D113" s="4">
+        <v>2</v>
+      </c>
+      <c r="E113" s="4">
+        <v>2.6563099999999999</v>
+      </c>
+      <c r="F113" s="7">
+        <v>4.7869008620689701</v>
+      </c>
+      <c r="G113" s="7">
+        <v>519429.29655172402</v>
+      </c>
+      <c r="H113" s="7">
+        <v>28.384482758620699</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C114" s="5"/>
+      <c r="D114" s="4">
         <v>3</v>
       </c>
-      <c r="D47" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>2</v>
+      <c r="E114" s="4">
+        <v>2.8473099999999998</v>
+      </c>
+      <c r="F114" s="7">
+        <v>3.79102238442823</v>
+      </c>
+      <c r="G114" s="7">
+        <v>529988.51581508503</v>
+      </c>
+      <c r="H114" s="7">
+        <v>24.3065693430657</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>3.7227000000000001</v>
-      </c>
-      <c r="D48">
-        <v>3.0070000000000001</v>
-      </c>
-      <c r="E48">
-        <v>65536</v>
-      </c>
-      <c r="F48">
-        <v>15.907407407407399</v>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C115" s="5"/>
+      <c r="D115" s="4">
+        <v>4</v>
+      </c>
+      <c r="E115" s="4">
+        <v>2.4866299999999999</v>
+      </c>
+      <c r="F115" s="7">
+        <v>4.2015414239482203</v>
+      </c>
+      <c r="G115" s="7">
+        <v>516493.66990291298</v>
+      </c>
+      <c r="H115" s="7">
+        <v>22.9223300970874</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>3.3763000000000001</v>
-      </c>
-      <c r="D49">
-        <v>3.04</v>
-      </c>
-      <c r="E49">
-        <v>65536</v>
-      </c>
-      <c r="F49" s="1">
-        <v>16.3836477987421</v>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C116" s="5"/>
+      <c r="D116" s="4">
+        <v>5</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1.9849399999999999</v>
+      </c>
+      <c r="F116" s="7">
+        <v>4.8820678294573696</v>
+      </c>
+      <c r="G116" s="7">
+        <v>517302.57364341099</v>
+      </c>
+      <c r="H116" s="7">
+        <v>21.093023255814</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>3.1559300000000001</v>
-      </c>
-      <c r="D50">
-        <v>3.08</v>
-      </c>
-      <c r="E50">
-        <v>65536</v>
-      </c>
-      <c r="F50" s="1">
-        <v>16.425120772946901</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>2.4154399999999998</v>
-      </c>
-      <c r="D51">
-        <v>3.133</v>
-      </c>
-      <c r="E51">
-        <v>65536</v>
-      </c>
-      <c r="F51">
-        <v>17.407692307692301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <v>2.3106300000000002</v>
-      </c>
-      <c r="D52">
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="E52">
-        <v>65536</v>
-      </c>
-      <c r="F52">
-        <v>18.2950819672131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>3.44686</v>
-      </c>
-      <c r="D70">
-        <v>2.7469999999999999</v>
-      </c>
-      <c r="E70">
-        <v>65536</v>
-      </c>
-      <c r="F70">
-        <v>11.62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>1.3480000000000001</v>
-      </c>
-      <c r="D71">
-        <v>3.1030000000000002</v>
-      </c>
-      <c r="E71">
-        <v>65536</v>
-      </c>
-      <c r="F71" s="1">
-        <v>16.305454545454499</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72">
-        <v>3.1164399999999999</v>
-      </c>
-      <c r="D72">
-        <v>10.08</v>
-      </c>
-      <c r="E72">
-        <v>65536</v>
-      </c>
-      <c r="F72" s="1">
-        <v>21.9018181818182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73">
-        <v>4</v>
-      </c>
-      <c r="C73">
-        <v>1.24885</v>
-      </c>
-      <c r="D73">
-        <v>5.66</v>
-      </c>
-      <c r="E73">
-        <v>65536</v>
-      </c>
-      <c r="F73">
-        <v>12.4254545454545</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74">
-        <v>5</v>
-      </c>
-      <c r="C74">
-        <v>2.2077800000000001</v>
-      </c>
-      <c r="D74">
-        <v>6.1050000000000004</v>
-      </c>
-      <c r="E74">
-        <v>65536</v>
-      </c>
-      <c r="F74">
-        <v>13.927272727272699</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C117" s="4"/>
+      <c r="D117" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C90" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91">
-        <v>10</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>24.376000000000001</v>
-      </c>
-      <c r="E91">
-        <v>65536</v>
-      </c>
-      <c r="F91">
-        <v>94.1666666666667</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92">
-        <v>100</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>43.024999999999999</v>
-      </c>
-      <c r="E92">
-        <v>65536</v>
-      </c>
-      <c r="F92" s="1">
-        <v>199.222222222222</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93">
-        <v>300</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>93.692999999999998</v>
-      </c>
-      <c r="E93">
-        <v>65536</v>
-      </c>
-      <c r="F93" s="1">
-        <v>27.443995049504899</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94">
-        <v>500</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>87.649000000000001</v>
-      </c>
-      <c r="E94">
-        <v>65536</v>
-      </c>
-      <c r="F94">
-        <v>39.211622680412297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95">
-        <v>700</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>114.836</v>
-      </c>
-      <c r="E95">
-        <v>65536</v>
-      </c>
-      <c r="F95">
-        <v>54.8703283185841</v>
-      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A70:A74"/>
+  <mergeCells count="9">
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B69:B73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
